--- a/results/I3_N5_M3_T15_C100_DepCentral_s3_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314.8231942152687</v>
+        <v>450.8020010033806</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4930000305175781</v>
+        <v>0.7269999980926514</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.49319421527048</v>
+        <v>32.80200100338062</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.354665156662408</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.354665156662408</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>116.3399999999982</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.99</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,50 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -874,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.828571428571428</v>
+        <v>5.069516742254631</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.11016360191877</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -906,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.05666855417199</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -944,7 +988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1016,62 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.0099999999992</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999993</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999857</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17499999999923</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.1299999999992</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.875</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.54000000000087</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.010000000002</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7849999999999</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8050000000003</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3099999999995</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.994999999999</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>99.98499999999956</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>99.24500000000015</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>99.15500000000051</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>108.5899999999992</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>106.6749999999993</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.010000000002</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>107.7849999999999</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>116.8050000000003</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>101.3099999999995</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>109.994999999999</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>85.68999999999978</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>96.85999999999979</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>81.1299999999992</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>89.875</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>86.54000000000087</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>99.98499999999956</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>99.24500000000015</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>99.15500000000051</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>108.5899999999992</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>106.6749999999993</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.010000000002037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>7.784999999999854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>16.80500000000029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.309999999999491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.994999999998981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1692,7 +1792,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>8.589999999999165</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>6.674999999999301</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +1872,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +1883,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +1894,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1805,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2028,7 +2128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2113,7 +2213,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2124,9 +2224,42 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
